--- a/data/trans_camb/P59A-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P59A-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P59A-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P59A-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,13</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,76</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,41</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,77</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,54</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,74</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,15</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,53</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,4; 5,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,8; 4,34</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,38; 4,37</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,48; 5,81</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,72; 8,48</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,11; 2,72</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,01; 4,34</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,74; 4,77</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,68; 1,88</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,91%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,12%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,64%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,25%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,09%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,6%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,46%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,69%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,68%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,87; 128,12</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,43; 100,69</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,4; 104,51</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,93; 74,82</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,14; 104,28</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,59; 35,85</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,47; 64,35</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,96; 72,26</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,31; 28,59</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,26</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,51</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,69</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,76</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,03</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,27</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,59</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,95; 4,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,24; 14,91</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,81; 13,63</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,87; 10,7</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,65; 10,14</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,54; 8,91</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,9; 4,7</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,05; 10,77</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,92; 9,15</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,22%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,16%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,52%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,89%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,87%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,23%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,92%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,48%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,0%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,05; 21,33</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,81; 70,93</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,04; 60,9</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,08; 45,8</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,14; 42,62</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,92; 36,24</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,35; 20,15</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,37; 45,55</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,02; 38,86</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,94</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,2</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,37</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>19,2</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,12</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>19,78</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,77</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,6</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,49</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,68; 20,71</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,55; 21,28</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,89; 25,68</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,01; 29,58</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,87; 23,41</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,15; 27,23</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,89; 21,4</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,32; 20,14</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,3; 24,01</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>94,07%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>113,5%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>149,32%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>154,2%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>113,42%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>158,86%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>122,8%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>113,09%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>153,78%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,53; 263,67</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,53; 288,96</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>47,65; 339,9</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>48,59; 384,42</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,59; 277,56</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>57,94; 345,19</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>53,28; 249,5</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>45,09; 218,42</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>81,87; 271,18</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,0</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,6</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,64</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,28</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,6</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,87</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,75</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,36</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,44; 10,38</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,12; 3,72</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,78; 1,98</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,43; 14,03</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,22; 13,98</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,66; 19,28</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,45; 10,25</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,97; 7,95</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,39; 9,22</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,86%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-32,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-35,19%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>344,94%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>430,25%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>758,31%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,57%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,94%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>44,64%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,0; 78,55</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,03; 33,96</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,03; 20,09</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,53; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,51; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>138,95; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,39; 150,9</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,36; 131,37</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,16; 150,27</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,51</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,02</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,43</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,05</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,8</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,13</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,56</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,46</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,64</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,95; 12,11</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,2; 14,58</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,07; 7,54</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,94; 16,87</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,58; 6,29</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,29; 8,25</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,34; 11,64</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,38; 8,06</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,89; 6,77</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,24%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,45%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,65%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>250,02%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>55,9%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>128,26%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>65,53%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,36%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,95%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,49; 189,59</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,74; 245,96</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,97; 127,07</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,97; 1261,4</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,22; 696,19</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,81; 745,5</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,34; 268,46</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,44; 210,64</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,68; 170,15</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,56</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,52</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,11</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,37</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,63; 2,94</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,82; 5,6</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,07; 8,43</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,52; 3,5</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 3,2</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,76; 2,18</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,11; 2,62</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,05; 2,77</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,2; 3,61</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,21%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>62,57%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>176,08%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>188,03%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>177,58%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>401,49%</t>
         </is>
       </c>
     </row>
@@ -1876,42 +1876,42 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
+          <t>-73,44; —</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>-14,2; 1290,2</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E27" s="2" t="inlineStr">
+      <c r="G27" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F27" s="2" t="inlineStr">
+      <c r="H27" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,77; —</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,35; 1482,12</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>44,15; 1671,95</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,61</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,78</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,27</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,01</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,84</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,86</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,86</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,8</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,54</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,2; 4,45</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,95; 6,57</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,44; 5,46</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,18; 6,53</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,48; 6,26</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,53; 5,15</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,82; 4,62</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,93; 5,64</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,73; 4,42</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,78%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,6%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,57%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,22%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,59%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,97%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,08%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,94%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,32%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,1; 36,54</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,22; 54,06</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,13; 44,22</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,89; 71,14</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,48; 68,26</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,82; 58,54</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,21; 41,56</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,01; 51,18</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,67; 40,25</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P59A-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P59A-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,56</t>
+          <t>-1,11</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-2,54</t>
+          <t>-2,15</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-1,53</t>
+          <t>-1,78</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,38; 4,37</t>
+          <t>-4,76; 3,48</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-7,11; 2,72</t>
+          <t>-6,7; 3,51</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-4,68; 1,88</t>
+          <t>-4,79; 1,49</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-9,64%</t>
+          <t>-19,23%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-25,6%</t>
+          <t>-21,7%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-19,68%</t>
+          <t>-22,86%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-65,4; 104,51</t>
+          <t>-68,48; 83,18</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-61,59; 35,85</t>
+          <t>-59,41; 43,86</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,14 +831,14 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-53,31; 28,59</t>
+          <t>-56,04; 22,35</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,69</t>
+          <t>6,21</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,62</t>
+          <t>-3,39</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,59</t>
+          <t>1,77</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 13,63</t>
+          <t>-1,92; 14,12</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,54; 8,91</t>
+          <t>-16,69; 6,55</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 9,15</t>
+          <t>-6,85; 8,05</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>23,52%</t>
+          <t>25,67%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,23%</t>
+          <t>-12,17%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>14,0%</t>
+          <t>6,9%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-8,04; 60,9</t>
+          <t>-8,01; 63,32</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-23,92; 36,24</t>
+          <t>-55,54; 24,93</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,14 +1047,14 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-7,02; 38,86</t>
+          <t>-25,35; 33,28</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>17,37</t>
+          <t>17,64</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>19,78</t>
+          <t>20,3</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>18,49</t>
+          <t>18,85</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,89; 25,68</t>
+          <t>9,04; 25,86</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>11,15; 27,23</t>
+          <t>11,65; 27,69</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>12,3; 24,01</t>
+          <t>12,69; 24,48</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>149,32%</t>
+          <t>151,63%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>158,86%</t>
+          <t>163,08%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>153,78%</t>
+          <t>156,73%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>47,65; 339,9</t>
+          <t>49,01; 340,94</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>57,94; 345,19</t>
+          <t>61,11; 352,12</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,14 +1263,14 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>81,87; 271,18</t>
+          <t>83,8; 276,4</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-6,6</t>
+          <t>-6,84</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>14,6</t>
+          <t>15,03</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-18,78; 1,98</t>
+          <t>-19,14; 1,75</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>9,66; 19,28</t>
+          <t>10,04; 19,81</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 9,22</t>
+          <t>-1,26; 9,29</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-35,19%</t>
+          <t>-36,46%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>758,31%</t>
+          <t>780,36%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>44,64%</t>
+          <t>44,68%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-65,03; 20,09</t>
+          <t>-66,34; 17,82</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>138,95; —</t>
+          <t>145,31; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,14 +1479,14 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-10,16; 150,27</t>
+          <t>-9,63; 150,57</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-1,43</t>
+          <t>-1,3</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>4,13</t>
+          <t>4,24</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>2,64</t>
+          <t>2,79</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-13,07; 7,54</t>
+          <t>-12,98; 7,62</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 8,25</t>
+          <t>-1,24; 8,39</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 6,77</t>
+          <t>-2,74; 6,97</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-10,65%</t>
+          <t>-9,67%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>128,26%</t>
+          <t>131,54%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>37,95%</t>
+          <t>40,13%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-57,97; 127,07</t>
+          <t>-57,13; 134,24</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-24,81; 745,5</t>
+          <t>-23,64; 744,71</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,14 +1695,14 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-27,68; 170,15</t>
+          <t>-27,3; 175,44</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-0,37</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>1,62</t>
+          <t>4,11</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>4,56</t>
+          <t>5,49</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>1,52</t>
+          <t>2,58</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,54</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>1,25</t>
+          <t>2,44</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>1,11</t>
+          <t>2,83</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>2,37</t>
+          <t>3,92</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-4,63; 2,94</t>
+          <t>-4,85; 10,03</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 5,6</t>
+          <t>-2,8; 10,42</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 8,43</t>
+          <t>-3,01; 10,23</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>0,52; 3,5</t>
+          <t>0,67; 7,92</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0,76; 2,18</t>
+          <t>1,06; 4,21</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 2,62</t>
+          <t>0,47; 6,79</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 2,77</t>
+          <t>-0,5; 4,07</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>1,2; 3,61</t>
+          <t>1,77; 6,11</t>
         </is>
       </c>
     </row>
@@ -1818,17 +1818,17 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-14,21%</t>
+          <t>133,53%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>62,57%</t>
+          <t>183,08%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>176,08%</t>
+          <t>244,61%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
@@ -1838,27 +1838,27 @@
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>188,03%</t>
+          <t>568,55%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>177,58%</t>
+          <t>340,26%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>401,49%</t>
+          <t>787,68%</t>
         </is>
       </c>
     </row>
@@ -1876,12 +1876,12 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-73,44; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-14,2; 1290,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1901,24 +1901,24 @@
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-50,77; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-49,35; 1482,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>44,15; 1671,95</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>1,61</t>
+          <t>-2,79</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>3,78</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>2,27</t>
+          <t>3,91</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>4,01</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>3,84</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>2,86</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>2,86</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>3,8</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>2,54</t>
+          <t>1,45</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 4,45</t>
+          <t>-9,59; 0,0</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>0,95; 6,57</t>
+          <t>-5,81; 3,81</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 5,46</t>
+          <t>-1,91; 9,18</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>1,18; 6,53</t>
+          <t>0,0; 3,37</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>1,48; 6,26</t>
+          <t>0,0; 4,37</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>0,53; 5,15</t>
+          <t>0,22; 1,53</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>0,82; 4,62</t>
+          <t>-1,25; 1,33</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>1,93; 5,64</t>
+          <t>-0,96; 2,79</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>0,73; 4,42</t>
+          <t>0,06; 2,82</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>11,78%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>27,6%</t>
+          <t>-14,09%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>16,57%</t>
+          <t>139,99%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>39,22%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>37,59%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>27,97%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>24,08%</t>
+          <t>2,65%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>31,94%</t>
+          <t>97,22%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>21,32%</t>
+          <t>224,33%</t>
         </is>
       </c>
     </row>
@@ -2087,59 +2087,276 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>-46,0; —</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-30,62; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>1,61</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>3,78</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>2,18</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>4,01</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>3,84</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>2,84</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>2,86</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>3,8</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>2,52</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-1,2; 4,45</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>0,95; 6,57</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-0,44; 5,36</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>1,18; 6,53</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>1,48; 6,26</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>0,28; 5,33</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>0,82; 4,62</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>1,93; 5,64</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>0,71; 4,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>11,78%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>27,6%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>15,93%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>39,22%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>37,59%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>27,78%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>24,08%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>31,94%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>21,19%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
           <t>-8,1; 36,54</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>6,22; 54,06</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>-3,13; 44,22</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>-2,94; 43,25</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
         <is>
           <t>9,89; 71,14</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>12,48; 68,26</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>4,82; 58,54</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>2,39; 57,76</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
         <is>
           <t>6,21; 41,56</t>
         </is>
       </c>
-      <c r="J31" s="2" t="inlineStr">
+      <c r="J35" s="2" t="inlineStr">
         <is>
           <t>15,01; 51,18</t>
         </is>
       </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>5,67; 40,25</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>5,57; 41,19</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>

--- a/data/trans_camb/P59A-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P59A-Edad-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 5,62</t>
+          <t>-1,04; 5,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 4,34</t>
+          <t>-3,0; 3,78</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 3,48</t>
+          <t>-4,67; 3,2</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 5,81</t>
+          <t>-2,62; 6,08</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 8,48</t>
+          <t>-0,34; 8,86</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,7; 3,51</t>
+          <t>-6,71; 3,3</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 4,34</t>
+          <t>-0,97; 4,52</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 4,77</t>
+          <t>-0,51; 5,09</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 1,49</t>
+          <t>-4,75; 1,5</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-20,87; 128,12</t>
+          <t>-15,79; 137,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-38,43; 100,69</t>
+          <t>-40,19; 90,53</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-68,48; 83,18</t>
+          <t>-67,77; 80,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-21,93; 74,82</t>
+          <t>-21,24; 75,66</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-7,14; 104,28</t>
+          <t>-2,89; 116,41</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-59,41; 43,86</t>
+          <t>-61,4; 37,88</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-11,47; 64,35</t>
+          <t>-11,58; 68,77</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-8,96; 72,26</t>
+          <t>-7,11; 75,37</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-56,04; 22,35</t>
+          <t>-55,77; 25,24</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,95; 4,46</t>
+          <t>-7,28; 4,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,24; 14,91</t>
+          <t>2,04; 14,57</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 14,12</t>
+          <t>-1,35; 14,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 10,7</t>
+          <t>-5,09; 10,65</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,65; 10,14</t>
+          <t>-4,8; 10,39</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-16,69; 6,55</t>
+          <t>-16,34; 6,4</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,9; 4,7</t>
+          <t>-4,32; 4,63</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,05; 10,77</t>
+          <t>1,55; 11,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-6,85; 8,05</t>
+          <t>-6,57; 7,67</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-25,05; 21,33</t>
+          <t>-27,08; 21,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,81; 70,93</t>
+          <t>8,21; 71,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-8,01; 63,32</t>
+          <t>-5,0; 66,61</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-15,08; 45,8</t>
+          <t>-16,13; 45,16</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-14,14; 42,62</t>
+          <t>-14,66; 43,93</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-55,54; 24,93</t>
+          <t>-52,88; 25,17</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-17,35; 20,15</t>
+          <t>-16,15; 19,79</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,37; 45,55</t>
+          <t>5,38; 47,27</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-25,35; 33,28</t>
+          <t>-24,07; 31,99</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,68; 20,71</t>
+          <t>1,5; 19,44</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,55; 21,28</t>
+          <t>4,64; 20,93</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9,04; 25,86</t>
+          <t>9,09; 25,95</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>9,01; 29,58</t>
+          <t>8,41; 29,83</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,87; 23,41</t>
+          <t>5,42; 23,19</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>11,65; 27,69</t>
+          <t>12,63; 28,57</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,89; 21,4</t>
+          <t>7,82; 22,48</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>7,32; 20,14</t>
+          <t>7,49; 20,03</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>12,69; 24,48</t>
+          <t>11,77; 24,62</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5,53; 263,67</t>
+          <t>1,11; 250,64</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>22,53; 288,96</t>
+          <t>20,16; 281,96</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>49,01; 340,94</t>
+          <t>49,37; 357,82</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>48,59; 384,42</t>
+          <t>46,27; 352,03</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>23,59; 277,56</t>
+          <t>30,53; 303,94</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>61,11; 352,12</t>
+          <t>66,87; 347,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>53,28; 249,5</t>
+          <t>50,75; 253,41</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>45,09; 218,42</t>
+          <t>46,03; 231,96</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>83,8; 276,4</t>
+          <t>70,23; 282,69</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-12,44; 10,38</t>
+          <t>-12,45; 9,87</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-17,12; 3,72</t>
+          <t>-16,56; 2,68</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-19,14; 1,75</t>
+          <t>-17,01; 1,43</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,43; 14,03</t>
+          <t>1,16; 13,52</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,22; 13,98</t>
+          <t>2,79; 14,57</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>10,04; 19,81</t>
+          <t>9,82; 19,71</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 10,25</t>
+          <t>-3,3; 9,65</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 7,95</t>
+          <t>-3,72; 7,45</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 9,29</t>
+          <t>-1,54; 9,15</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-51,0; 78,55</t>
+          <t>-51,45; 74,63</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-64,03; 33,96</t>
+          <t>-64,4; 23,54</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-66,34; 17,82</t>
+          <t>-62,56; 14,86</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-35,53; —</t>
+          <t>-34,45; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>18,51; —</t>
+          <t>21,37; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>145,31; —</t>
+          <t>134,56; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-27,39; 150,9</t>
+          <t>-25,1; 143,34</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-31,36; 131,37</t>
+          <t>-28,47; 117,24</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-9,63; 150,57</t>
+          <t>-12,05; 140,63</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-14,95; 12,11</t>
+          <t>-13,57; 11,74</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-9,2; 14,58</t>
+          <t>-8,97; 15,37</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-12,98; 7,62</t>
+          <t>-12,68; 7,96</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,94; 16,87</t>
+          <t>1,18; 16,22</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 6,29</t>
+          <t>-3,81; 6,43</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 8,39</t>
+          <t>-1,39; 7,87</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 11,64</t>
+          <t>-2,05; 11,88</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 8,06</t>
+          <t>-3,81; 8,0</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 6,97</t>
+          <t>-3,2; 7,29</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-74,49; 189,59</t>
+          <t>-73,17; 211,84</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-49,74; 245,96</t>
+          <t>-46,34; 244,34</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-57,13; 134,24</t>
+          <t>-60,87; 139,82</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-24,97; 1261,4</t>
+          <t>-19,13; 1283,76</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-70,22; 696,19</t>
+          <t>-74,79; 702,7</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-23,64; 744,71</t>
+          <t>-21,99; 754,6</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-29,34; 268,46</t>
+          <t>-23,72; 304,76</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-33,44; 210,64</t>
+          <t>-42,29; 230,03</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-27,3; 175,44</t>
+          <t>-29,07; 196,73</t>
         </is>
       </c>
     </row>
@@ -1765,22 +1765,22 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-4,85; 10,03</t>
+          <t>-4,48; 10,69</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 10,42</t>
+          <t>-2,61; 10,65</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 10,23</t>
+          <t>-2,11; 10,53</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>0,67; 7,92</t>
+          <t>0,67; 7,36</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -1790,22 +1790,22 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>1,06; 4,21</t>
+          <t>1,21; 4,76</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>0,47; 6,79</t>
+          <t>0,46; 6,43</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 4,07</t>
+          <t>-0,11; 4,35</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>1,77; 6,11</t>
+          <t>1,88; 6,02</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-9,59; 0,0</t>
+          <t>-9,51; 0,0</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-5,81; 3,81</t>
+          <t>-5,9; 4,4</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 9,18</t>
+          <t>-2,22; 9,11</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,37</t>
+          <t>0,0; 3,09</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,37</t>
+          <t>0,0; 4,26</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>0,22; 1,53</t>
+          <t>0,22; 1,46</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 1,33</t>
+          <t>-1,34; 1,33</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 2,79</t>
+          <t>-0,8; 2,57</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>0,06; 2,82</t>
+          <t>0,09; 2,85</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-46,0; —</t>
+          <t>-55,83; —</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-30,62; —</t>
+          <t>-42,38; —</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 4,45</t>
+          <t>-1,32; 4,43</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>0,95; 6,57</t>
+          <t>0,94; 6,69</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 5,36</t>
+          <t>-0,63; 5,04</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>1,18; 6,53</t>
+          <t>1,52; 6,58</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>1,48; 6,26</t>
+          <t>1,44; 6,24</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>0,28; 5,33</t>
+          <t>0,22; 5,29</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>0,82; 4,62</t>
+          <t>0,96; 4,84</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>1,93; 5,64</t>
+          <t>1,86; 5,52</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>0,71; 4,5</t>
+          <t>0,65; 4,58</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-8,1; 36,54</t>
+          <t>-9,03; 35,88</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>6,22; 54,06</t>
+          <t>6,01; 54,02</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 43,25</t>
+          <t>-4,18; 42,66</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>9,89; 71,14</t>
+          <t>12,17; 73,14</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>12,48; 68,26</t>
+          <t>12,29; 69,16</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>2,39; 57,76</t>
+          <t>2,15; 58,72</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>6,21; 41,56</t>
+          <t>7,45; 43,53</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>15,01; 51,18</t>
+          <t>14,71; 50,55</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>5,57; 41,19</t>
+          <t>4,71; 41,67</t>
         </is>
       </c>
     </row>
